--- a/AdvantageOnlineShoppingClasses/Parameters.xlsx
+++ b/AdvantageOnlineShoppingClasses/Parameters.xlsx
@@ -1469,7 +1469,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>V</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">

--- a/AdvantageOnlineShoppingClasses/Parameters.xlsx
+++ b/AdvantageOnlineShoppingClasses/Parameters.xlsx
@@ -1469,7 +1469,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">

--- a/AdvantageOnlineShoppingClasses/Parameters.xlsx
+++ b/AdvantageOnlineShoppingClasses/Parameters.xlsx
@@ -3,33 +3,26 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3075" yWindow="3075" windowWidth="20715" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="177"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="177"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,9 +128,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -149,30 +142,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +540,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -689,7 +676,7 @@
       <c r="L2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="B3" s="2" t="inlineStr">
         <is>
           <t>id</t>
@@ -725,7 +712,7 @@
       <c r="L3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="n"/>
+      <c r="A4" s="10" t="n"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
           <t>quantity</t>
@@ -759,7 +746,7 @@
       <c r="L4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="n"/>
+      <c r="A5" s="11" t="n"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>color</t>
@@ -827,7 +814,7 @@
       <c r="L6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
           <t>id</t>
@@ -859,7 +846,7 @@
       <c r="L7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n"/>
+      <c r="A8" s="10" t="n"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>quantity</t>
@@ -891,7 +878,7 @@
       <c r="L8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="n"/>
+      <c r="A9" s="11" t="n"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
           <t>color</t>
@@ -943,7 +930,7 @@
       <c r="L10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
           <t>id</t>
@@ -967,7 +954,7 @@
       <c r="L11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
           <t>quantity</t>
@@ -991,7 +978,7 @@
       <c r="L12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="n"/>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
           <t>color</t>
@@ -1017,7 +1004,7 @@
       <c r="L13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>Product Edit 1</t>
         </is>
@@ -1041,7 +1028,7 @@
       <c r="L14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="n"/>
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
           <t>color</t>
@@ -1059,7 +1046,7 @@
       <c r="L15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="inlineStr">
+      <c r="A16" s="12" t="inlineStr">
         <is>
           <t>Product Edit 2</t>
         </is>
@@ -1083,7 +1070,7 @@
       <c r="L16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="n"/>
+      <c r="A17" s="10" t="n"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t>color</t>
@@ -1123,7 +1110,7 @@
       <c r="L18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="n"/>
+      <c r="A19" s="11" t="n"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
           <t>color</t>
@@ -1171,7 +1158,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="n"/>
+      <c r="A21" s="11" t="n"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Password</t>
@@ -1223,7 +1210,7 @@
       <c r="L22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="n"/>
+      <c r="A23" s="10" t="n"/>
       <c r="B23" s="2" t="inlineStr">
         <is>
           <t>E-Mail</t>
@@ -1245,7 +1232,7 @@
       <c r="L23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="n"/>
+      <c r="A24" s="11" t="n"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Password</t>
@@ -1293,7 +1280,7 @@
       <c r="L25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="14" t="n"/>
+      <c r="A26" s="11" t="n"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Password</t>
@@ -1339,7 +1326,7 @@
       <c r="L27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="n"/>
+      <c r="A28" s="10" t="n"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <t>CVV</t>
@@ -1359,7 +1346,7 @@
       <c r="L28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="n"/>
+      <c r="A29" s="10" t="n"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Month</t>
@@ -1379,7 +1366,7 @@
       <c r="L29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="n"/>
+      <c r="A30" s="10" t="n"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1399,7 +1386,7 @@
       <c r="L30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="n"/>
+      <c r="A31" s="11" t="n"/>
       <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Name</t>
@@ -1480,16 +1467,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J23" r:id="rId1"/>

--- a/AdvantageOnlineShoppingClasses/Parameters.xlsx
+++ b/AdvantageOnlineShoppingClasses/Parameters.xlsx
@@ -1456,7 +1456,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>V</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
